--- a/Resultados_PLSDA.xlsx
+++ b/Resultados_PLSDA.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21727"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Bakup Felipe\Novo drive\Doutorado Felipe\Meu artigo\Tutorial PLS-DA\Artigo\Matlab\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C9512931-E252-450F-8CEE-563BD001D8A7}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="75" windowWidth="14355" windowHeight="6225"/>
+    <workbookView xWindow="-22860" yWindow="3600" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
@@ -48,15 +54,6 @@
     <t>Previsto_Sem_Classe</t>
   </si>
   <si>
-    <t>Acurácia %</t>
-  </si>
-  <si>
-    <t>Sensibilidade %</t>
-  </si>
-  <si>
-    <t>Especificidade %</t>
-  </si>
-  <si>
     <t>Azeite_de_Oliva</t>
   </si>
   <si>
@@ -67,12 +64,21 @@
   </si>
   <si>
     <t>Oleo_de_Soja</t>
+  </si>
+  <si>
+    <t>Acurácia</t>
+  </si>
+  <si>
+    <t>Sensibilidade</t>
+  </si>
+  <si>
+    <t>Especificidade</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -114,6 +120,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -121,7 +130,7 @@
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
-    <a:clrScheme name="Escritório">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -159,9 +168,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Escritório">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -194,9 +203,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -229,9 +255,26 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Escritório">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -404,22 +447,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.85546875" customWidth="1"/>
-    <col min="2" max="3" width="15.7109375" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" customWidth="1"/>
-    <col min="5" max="5" width="13.42578125" customWidth="1"/>
+    <col min="1" max="1" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="20" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.85546875" customWidth="1"/>
-    <col min="10" max="11" width="15.7109375" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" customWidth="1"/>
-    <col min="13" max="13" width="13.42578125" customWidth="1"/>
+    <col min="9" max="9" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.42578125" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="20" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -618,127 +661,127 @@
         <v>0</v>
       </c>
       <c r="B8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" t="s">
         <v>13</v>
       </c>
-      <c r="C8" t="s">
-        <v>14</v>
-      </c>
-      <c r="D8" t="s">
-        <v>15</v>
-      </c>
-      <c r="E8" t="s">
-        <v>16</v>
-      </c>
       <c r="I8" t="s">
         <v>0</v>
       </c>
       <c r="J8" t="s">
+        <v>10</v>
+      </c>
+      <c r="K8" t="s">
+        <v>11</v>
+      </c>
+      <c r="L8" t="s">
+        <v>12</v>
+      </c>
+      <c r="M8" t="s">
         <v>13</v>
-      </c>
-      <c r="K8" t="s">
-        <v>14</v>
-      </c>
-      <c r="L8" t="s">
-        <v>15</v>
-      </c>
-      <c r="M8" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B9">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="C9">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="D9">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="E9">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="I9" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="J9">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="K9">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="L9">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="M9">
-        <v>100</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B10">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="C10">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="D10">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="E10">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="I10" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="J10">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="K10">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="L10">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="M10">
-        <v>100</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B11">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="C11">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="D11">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="E11">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="I11" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="J11">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="K11">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="L11">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="M11">
-        <v>100</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -747,7 +790,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -759,7 +802,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
